--- a/iterationsNORMAL/iter_1/data.xlsx
+++ b/iterationsNORMAL/iter_1/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33.5071342764125</v>
+        <v>-19.74766646740259</v>
       </c>
       <c r="B2" t="n">
-        <v>42.92908915964335</v>
+        <v>-27.37361464458479</v>
       </c>
       <c r="C2" t="n">
-        <v>42.99388231654225</v>
+        <v>-27.4565582095891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-28.76935778746952</v>
+        <v>26.18231905192428</v>
       </c>
       <c r="B3" t="n">
-        <v>-20.99382914305364</v>
+        <v>-18.98629250911026</v>
       </c>
       <c r="C3" t="n">
-        <v>36.02588264519176</v>
+        <v>35.05610042649253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.76964300234888</v>
+        <v>31.10353664656336</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.851619020528816</v>
+        <v>27.57812936573994</v>
       </c>
       <c r="C4" t="n">
-        <v>-20.07868552390898</v>
+        <v>-20.28268425626425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-16.5158141319741</v>
+        <v>-11.24203580672672</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.877080225776096</v>
+        <v>-21.46604534159097</v>
       </c>
       <c r="C5" t="n">
-        <v>-30.26894252902743</v>
+        <v>23.6593650116834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.56984142351147</v>
+        <v>23.31728816977181</v>
       </c>
       <c r="B6" t="n">
-        <v>46.64065870546811</v>
+        <v>22.92429800220922</v>
       </c>
       <c r="C6" t="n">
-        <v>-29.81736258051551</v>
+        <v>-25.21290916001853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-28.68642846221244</v>
+        <v>17.23977142334333</v>
       </c>
       <c r="B7" t="n">
-        <v>-24.10243754220295</v>
+        <v>-20.70350903947181</v>
       </c>
       <c r="C7" t="n">
-        <v>-18.53485614918851</v>
+        <v>15.44359776705836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.642665406486108</v>
+        <v>-32.48887554827334</v>
       </c>
       <c r="B8" t="n">
-        <v>21.31006709937024</v>
+        <v>41.45365977390861</v>
       </c>
       <c r="C8" t="n">
-        <v>-32.00063035128017</v>
+        <v>31.08413214519554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-24.05452954872943</v>
+        <v>-30.9315896522196</v>
       </c>
       <c r="B9" t="n">
-        <v>-23.9605174714107</v>
+        <v>28.79454544940671</v>
       </c>
       <c r="C9" t="n">
-        <v>-20.39234821276619</v>
+        <v>23.96220782888112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.85430038910495</v>
+        <v>-29.58233959893112</v>
       </c>
       <c r="B10" t="n">
-        <v>-25.24530812053533</v>
+        <v>-26.14859685310035</v>
       </c>
       <c r="C10" t="n">
-        <v>-26.71058876981785</v>
+        <v>20.21710321334741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77.27318818141498</v>
+        <v>9.443781390244627</v>
       </c>
       <c r="B11" t="n">
-        <v>-30.9835738468909</v>
+        <v>-12.26712334067407</v>
       </c>
       <c r="C11" t="n">
-        <v>13.34633599692207</v>
+        <v>24.57133566170086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>53.04242162667232</v>
+        <v>-29.63785612924491</v>
       </c>
       <c r="B12" t="n">
-        <v>34.26578021386155</v>
+        <v>24.93864029912656</v>
       </c>
       <c r="C12" t="n">
-        <v>-33.33307023712684</v>
+        <v>28.90173905205615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-8.09632966952573</v>
+        <v>-31.0821270133109</v>
       </c>
       <c r="B13" t="n">
-        <v>22.18786085930558</v>
+        <v>26.54672947919556</v>
       </c>
       <c r="C13" t="n">
-        <v>3.691822023547109</v>
+        <v>20.20418690118507</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-23.27507492140636</v>
+        <v>-31.54651063832512</v>
       </c>
       <c r="B14" t="n">
-        <v>-27.41556389715121</v>
+        <v>44.0433520909579</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.704121397800113</v>
+        <v>-34.17619700421665</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-19.30417427702069</v>
+        <v>23.70095200555486</v>
       </c>
       <c r="B15" t="n">
-        <v>-20.62357342298309</v>
+        <v>15.75558224676269</v>
       </c>
       <c r="C15" t="n">
-        <v>37.42942331443866</v>
+        <v>-1.387896787622712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>72.36143082373707</v>
+        <v>13.68133710444893</v>
       </c>
       <c r="B16" t="n">
-        <v>-11.79719797822158</v>
+        <v>-22.71678694631689</v>
       </c>
       <c r="C16" t="n">
-        <v>32.15265625124619</v>
+        <v>26.48706791331776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-35.38924783324059</v>
+        <v>-46.46592576493562</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.981010336447314</v>
+        <v>-22.67373883555429</v>
       </c>
       <c r="C17" t="n">
-        <v>45.05247710852573</v>
+        <v>-34.70250004610978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-31.59875390654937</v>
+        <v>10.67159425185086</v>
       </c>
       <c r="B18" t="n">
-        <v>-47.60073986089343</v>
+        <v>34.65928680036768</v>
       </c>
       <c r="C18" t="n">
-        <v>-23.18978595042524</v>
+        <v>17.18940602797417</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-27.30889625208038</v>
+        <v>-28.93852075186907</v>
       </c>
       <c r="B19" t="n">
-        <v>-25.26820930959916</v>
+        <v>28.2934249745737</v>
       </c>
       <c r="C19" t="n">
-        <v>17.53977474104226</v>
+        <v>11.9382256638699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>22.36269981870046</v>
+        <v>3.453576696167318</v>
       </c>
       <c r="B20" t="n">
-        <v>3.844699121626954</v>
+        <v>34.15694869018134</v>
       </c>
       <c r="C20" t="n">
-        <v>54.43679556836629</v>
+        <v>-13.36463698032811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-31.44450653518877</v>
+        <v>32.42624457099637</v>
       </c>
       <c r="B21" t="n">
-        <v>-36.83885517759298</v>
+        <v>-32.54362116061873</v>
       </c>
       <c r="C21" t="n">
-        <v>40.61998368295951</v>
+        <v>-34.34477775829267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-22.10577701373487</v>
+        <v>39.65982404475445</v>
       </c>
       <c r="B22" t="n">
-        <v>-18.00510402254692</v>
+        <v>33.65451430771158</v>
       </c>
       <c r="C22" t="n">
-        <v>19.44203096715622</v>
+        <v>13.78951818294517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-42.13523965182111</v>
+        <v>-29.30016958534831</v>
       </c>
       <c r="B23" t="n">
-        <v>-27.33621909025713</v>
+        <v>21.55060347207594</v>
       </c>
       <c r="C23" t="n">
-        <v>13.50008694586579</v>
+        <v>21.02188657375523</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-24.02907607446826</v>
+        <v>-20.34296672558263</v>
       </c>
       <c r="B24" t="n">
-        <v>-46.46774884318824</v>
+        <v>9.239257800064294</v>
       </c>
       <c r="C24" t="n">
-        <v>-25.93018716425992</v>
+        <v>-21.39300680010784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44.91373809513372</v>
+        <v>-24.16259515652894</v>
       </c>
       <c r="B25" t="n">
-        <v>-21.10011002125162</v>
+        <v>13.12816002956774</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.24024744272753</v>
+        <v>-29.44085226208021</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-31.88187135579417</v>
+        <v>-21.66738755345985</v>
       </c>
       <c r="B26" t="n">
-        <v>-21.72282695240152</v>
+        <v>27.02949763584482</v>
       </c>
       <c r="C26" t="n">
-        <v>30.24088567838982</v>
+        <v>-37.04981267769237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>57.06098535565115</v>
+        <v>19.59375335732429</v>
       </c>
       <c r="B27" t="n">
-        <v>35.1089656154404</v>
+        <v>17.05609158209712</v>
       </c>
       <c r="C27" t="n">
-        <v>-28.12242830481498</v>
+        <v>38.56181608191521</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-20.57913672030953</v>
+        <v>-16.70517699306724</v>
       </c>
       <c r="B28" t="n">
-        <v>43.5270496636509</v>
+        <v>-17.91727483376467</v>
       </c>
       <c r="C28" t="n">
-        <v>47.13183209571432</v>
+        <v>-0.1385739947521195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>33.46507784685122</v>
+        <v>24.23765878442373</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.396703452111983</v>
+        <v>26.17720891125219</v>
       </c>
       <c r="C29" t="n">
-        <v>24.49475884798586</v>
+        <v>16.65701570359944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31.03321527870391</v>
+        <v>27.18025404458095</v>
       </c>
       <c r="B30" t="n">
-        <v>-19.51893047377992</v>
+        <v>-16.88738690098657</v>
       </c>
       <c r="C30" t="n">
-        <v>-28.7288333851648</v>
+        <v>-26.2888018454591</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>44.2508888877058</v>
+        <v>-27.12255881873281</v>
       </c>
       <c r="B31" t="n">
-        <v>-26.39271891866868</v>
+        <v>11.98931230990836</v>
       </c>
       <c r="C31" t="n">
-        <v>11.45911977252209</v>
+        <v>31.13437826838126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-4.750538200941264</v>
+        <v>45.36980015634695</v>
       </c>
       <c r="B32" t="n">
-        <v>1.615834737844825</v>
+        <v>-33.3085271143103</v>
       </c>
       <c r="C32" t="n">
-        <v>11.85805682600854</v>
+        <v>22.8522678195818</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.6753276944190378</v>
+        <v>-28.10989505178437</v>
       </c>
       <c r="B33" t="n">
-        <v>30.82739135118296</v>
+        <v>-16.67657374102025</v>
       </c>
       <c r="C33" t="n">
-        <v>55.41561246667553</v>
+        <v>32.6883803901648</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>53.49995194742167</v>
+        <v>-35.12080044160606</v>
       </c>
       <c r="B34" t="n">
-        <v>-26.09839270542517</v>
+        <v>-23.0658663817369</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.202334304666</v>
+        <v>-6.219815587694838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.799415633989283</v>
+        <v>33.2394154329865</v>
       </c>
       <c r="B35" t="n">
-        <v>-43.45399137227626</v>
+        <v>15.52448643711996</v>
       </c>
       <c r="C35" t="n">
-        <v>-27.2959361247567</v>
+        <v>-19.79828671386946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-18.41001771767124</v>
+        <v>28.49926304907665</v>
       </c>
       <c r="B36" t="n">
-        <v>48.95095031591173</v>
+        <v>-43.42952482473137</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.788121814825517</v>
+        <v>-22.49712327432424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.51450928116284</v>
+        <v>-34.49974547340542</v>
       </c>
       <c r="B37" t="n">
-        <v>-25.70863957884967</v>
+        <v>-34.74104794813032</v>
       </c>
       <c r="C37" t="n">
-        <v>26.39220064310208</v>
+        <v>-23.4697750632778</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-23.23051621292039</v>
+        <v>40.1319181942343</v>
       </c>
       <c r="B38" t="n">
-        <v>-37.30441563231641</v>
+        <v>21.4403301159574</v>
       </c>
       <c r="C38" t="n">
-        <v>-26.36229087888062</v>
+        <v>-25.08360866924557</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-17.87283781788422</v>
+        <v>11.26154192020719</v>
       </c>
       <c r="B39" t="n">
-        <v>-26.939419035597</v>
+        <v>23.43339095558165</v>
       </c>
       <c r="C39" t="n">
-        <v>-25.37325002469593</v>
+        <v>21.76200259759499</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-22.89227269973889</v>
+        <v>-36.73915097361426</v>
       </c>
       <c r="B40" t="n">
-        <v>-3.694648814459049</v>
+        <v>13.69899102944809</v>
       </c>
       <c r="C40" t="n">
-        <v>-25.66508196168682</v>
+        <v>12.94046708557805</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-36.88930714521537</v>
+        <v>30.03795267486503</v>
       </c>
       <c r="B41" t="n">
-        <v>18.11102946831154</v>
+        <v>-35.11107332824524</v>
       </c>
       <c r="C41" t="n">
-        <v>7.77483910634677</v>
+        <v>29.38413282404787</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-13.66486641513598</v>
+        <v>-23.57757479248146</v>
       </c>
       <c r="B42" t="n">
-        <v>8.470324923820947</v>
+        <v>-20.62157575277477</v>
       </c>
       <c r="C42" t="n">
-        <v>-8.431043307612526</v>
+        <v>-25.33513721542909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>24.14874503597153</v>
+        <v>-26.91277904775831</v>
       </c>
       <c r="B43" t="n">
-        <v>-20.96648137204845</v>
+        <v>27.67910448311429</v>
       </c>
       <c r="C43" t="n">
-        <v>27.58746811749714</v>
+        <v>18.21342606754785</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.884839586045911</v>
+        <v>37.48386068624314</v>
       </c>
       <c r="B44" t="n">
-        <v>11.94364484935271</v>
+        <v>26.13848454747396</v>
       </c>
       <c r="C44" t="n">
-        <v>17.88457263152401</v>
+        <v>-36.56622127217673</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-12.90295580056284</v>
+        <v>26.99741173186024</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9682294492969959</v>
+        <v>20.49734045094879</v>
       </c>
       <c r="C45" t="n">
-        <v>-29.63084124235407</v>
+        <v>-17.50710662981451</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-26.04127591675967</v>
+        <v>5.843648773582659</v>
       </c>
       <c r="B46" t="n">
-        <v>-29.89313952297364</v>
+        <v>-13.68299401328851</v>
       </c>
       <c r="C46" t="n">
-        <v>-28.61191375966741</v>
+        <v>24.67805263013278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>66.49379558300552</v>
+        <v>-25.54945335603944</v>
       </c>
       <c r="B47" t="n">
-        <v>-29.85015482089836</v>
+        <v>-27.7248563662261</v>
       </c>
       <c r="C47" t="n">
-        <v>-30.87933678147833</v>
+        <v>30.53827289161594</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-25.0342232639044</v>
+        <v>-20.31118628771472</v>
       </c>
       <c r="B48" t="n">
-        <v>2.05731751346229</v>
+        <v>26.15869159253758</v>
       </c>
       <c r="C48" t="n">
-        <v>-5.007072676964108</v>
+        <v>-24.31264682712668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-37.01284554436824</v>
+        <v>26.97111733022809</v>
       </c>
       <c r="B49" t="n">
-        <v>-34.33805338749644</v>
+        <v>-23.55068508274996</v>
       </c>
       <c r="C49" t="n">
-        <v>41.81260271934916</v>
+        <v>-29.97723360899163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-27.78740161332131</v>
+        <v>-25.56126852955189</v>
       </c>
       <c r="B50" t="n">
-        <v>-44.90559591564925</v>
+        <v>24.17886721763609</v>
       </c>
       <c r="C50" t="n">
-        <v>-19.43503814582189</v>
+        <v>-30.06330597565722</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21.88552677431208</v>
+        <v>23.26083591240349</v>
       </c>
       <c r="B51" t="n">
-        <v>3.962169768296544</v>
+        <v>-18.55630840424455</v>
       </c>
       <c r="C51" t="n">
-        <v>-17.74182821940072</v>
+        <v>-24.85806405196935</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24.06872756876919</v>
+        <v>27.26879692737614</v>
       </c>
       <c r="B52" t="n">
-        <v>13.38969257266263</v>
+        <v>-17.86294700558398</v>
       </c>
       <c r="C52" t="n">
-        <v>-19.59989396726638</v>
+        <v>-31.38186603392114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-24.41479487583576</v>
+        <v>27.26286126487339</v>
       </c>
       <c r="B53" t="n">
-        <v>38.29714447087417</v>
+        <v>-30.51819442027718</v>
       </c>
       <c r="C53" t="n">
-        <v>-16.18507425185106</v>
+        <v>30.31478430122903</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-41.19043168014102</v>
+        <v>26.14920053827748</v>
       </c>
       <c r="B54" t="n">
-        <v>-30.56460765190015</v>
+        <v>26.19036056266968</v>
       </c>
       <c r="C54" t="n">
-        <v>-34.49666851031058</v>
+        <v>-28.87892079173193</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26.634832745851</v>
+        <v>-23.35798699303212</v>
       </c>
       <c r="B55" t="n">
-        <v>52.26457476827593</v>
+        <v>27.40978603369539</v>
       </c>
       <c r="C55" t="n">
-        <v>-15.75965250783068</v>
+        <v>-25.0097716582776</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15.78548807753163</v>
+        <v>24.93025049691035</v>
       </c>
       <c r="B56" t="n">
-        <v>8.548810857007769</v>
+        <v>34.38383868731949</v>
       </c>
       <c r="C56" t="n">
-        <v>-21.85749538310337</v>
+        <v>31.15926132766492</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-19.68272857208416</v>
+        <v>-23.95645430274056</v>
       </c>
       <c r="B57" t="n">
-        <v>18.33546625089243</v>
+        <v>-31.87951742347386</v>
       </c>
       <c r="C57" t="n">
-        <v>-10.35629759142119</v>
+        <v>-33.7067388482884</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>40.53189019544303</v>
+        <v>-25.28398301135233</v>
       </c>
       <c r="B58" t="n">
-        <v>18.10062389211319</v>
+        <v>-21.13985098230116</v>
       </c>
       <c r="C58" t="n">
-        <v>-20.98504182379975</v>
+        <v>-23.22403865777671</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>34.2247594623954</v>
+        <v>-24.41724806147461</v>
       </c>
       <c r="B59" t="n">
-        <v>-14.74231328119542</v>
+        <v>-34.29394342235849</v>
       </c>
       <c r="C59" t="n">
-        <v>-16.99219562472357</v>
+        <v>19.87637666459585</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-31.45428851500194</v>
+        <v>18.97022925005122</v>
       </c>
       <c r="B60" t="n">
-        <v>-22.34779293884767</v>
+        <v>33.280714470198</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.957968918693498</v>
+        <v>-28.62069246777476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>36.17660198400311</v>
+        <v>-24.79286178453476</v>
       </c>
       <c r="B61" t="n">
-        <v>-9.449189243801698</v>
+        <v>-12.64579415149596</v>
       </c>
       <c r="C61" t="n">
-        <v>7.604787855967484</v>
+        <v>16.01103852643502</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>62.52696999502935</v>
+        <v>-18.90472017459013</v>
       </c>
       <c r="B62" t="n">
-        <v>27.84630414964191</v>
+        <v>-11.90212371829455</v>
       </c>
       <c r="C62" t="n">
-        <v>24.2877721470618</v>
+        <v>-33.40254076864508</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-26.6181181084291</v>
+        <v>-13.19271758424621</v>
       </c>
       <c r="B63" t="n">
-        <v>-20.62528974733736</v>
+        <v>-22.42522289883524</v>
       </c>
       <c r="C63" t="n">
-        <v>-30.20245229214242</v>
+        <v>-26.91569477017111</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-29.08861186754843</v>
+        <v>27.42784390430177</v>
       </c>
       <c r="B64" t="n">
-        <v>52.96863834403695</v>
+        <v>16.04822277016508</v>
       </c>
       <c r="C64" t="n">
-        <v>-28.95550717391553</v>
+        <v>28.32505359490263</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-46.15205369387976</v>
+        <v>21.02076320917305</v>
       </c>
       <c r="B65" t="n">
-        <v>24.31632823548314</v>
+        <v>-24.49496023883012</v>
       </c>
       <c r="C65" t="n">
-        <v>-25.46096059437384</v>
+        <v>-28.96342644881067</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24.25556962472056</v>
+        <v>30.87841135426612</v>
       </c>
       <c r="B66" t="n">
-        <v>34.1293759988494</v>
+        <v>-29.34999879520056</v>
       </c>
       <c r="C66" t="n">
-        <v>-14.76672677091366</v>
+        <v>30.80600119846356</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-17.88725872983848</v>
+        <v>-33.11300901611192</v>
       </c>
       <c r="B67" t="n">
-        <v>-35.00298727397512</v>
+        <v>19.31932359807763</v>
       </c>
       <c r="C67" t="n">
-        <v>-25.27890700525441</v>
+        <v>-32.27763015079324</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>49.15254388769144</v>
+        <v>18.88899391741674</v>
       </c>
       <c r="B68" t="n">
-        <v>-23.72732395398435</v>
+        <v>-33.77847205130013</v>
       </c>
       <c r="C68" t="n">
-        <v>-30.06542134250732</v>
+        <v>-32.95728237310161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-8.934380744599071</v>
+        <v>-33.08136602381194</v>
       </c>
       <c r="B69" t="n">
-        <v>25.29898526059075</v>
+        <v>-37.70826425481222</v>
       </c>
       <c r="C69" t="n">
-        <v>-33.55334571709152</v>
+        <v>11.09905105300441</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-15.94033270203437</v>
+        <v>35.10300462161059</v>
       </c>
       <c r="B70" t="n">
-        <v>-29.80073070179529</v>
+        <v>-24.89358728027425</v>
       </c>
       <c r="C70" t="n">
-        <v>31.61030816201739</v>
+        <v>22.12878293165239</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30.00886103850791</v>
+        <v>39.80541692489037</v>
       </c>
       <c r="B71" t="n">
-        <v>-17.80824159525578</v>
+        <v>-16.48582042876681</v>
       </c>
       <c r="C71" t="n">
-        <v>25.68993031763986</v>
+        <v>-35.96218244087096</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>19.79027573510359</v>
+        <v>-1.065248423383049</v>
       </c>
       <c r="B72" t="n">
-        <v>48.02966059334286</v>
+        <v>23.68375941955017</v>
       </c>
       <c r="C72" t="n">
-        <v>12.51729516637275</v>
+        <v>-19.72759830325491</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-5.488801848367632</v>
+        <v>-12.70408325350773</v>
       </c>
       <c r="B73" t="n">
-        <v>2.222603050101026</v>
+        <v>23.50259551502085</v>
       </c>
       <c r="C73" t="n">
-        <v>28.15049240768402</v>
+        <v>-22.59109424189446</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-18.37678713256055</v>
+        <v>-41.50264078682437</v>
       </c>
       <c r="B74" t="n">
-        <v>-20.47562741359654</v>
+        <v>25.09499650386154</v>
       </c>
       <c r="C74" t="n">
-        <v>-18.36504140049975</v>
+        <v>-34.30733158823541</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-16.75089325263906</v>
+        <v>-30.73784312096189</v>
       </c>
       <c r="B75" t="n">
-        <v>45.83868494811468</v>
+        <v>-32.96064120786258</v>
       </c>
       <c r="C75" t="n">
-        <v>22.88803130738215</v>
+        <v>-18.11975371850399</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-11.4515390568962</v>
+        <v>31.68363899411512</v>
       </c>
       <c r="B76" t="n">
-        <v>-29.17250563223893</v>
+        <v>-21.03262882708299</v>
       </c>
       <c r="C76" t="n">
-        <v>-29.9756501187341</v>
+        <v>19.63727495092599</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-23.29787423720727</v>
+        <v>-27.22213179974879</v>
       </c>
       <c r="B77" t="n">
-        <v>60.40897505891117</v>
+        <v>17.4517545411979</v>
       </c>
       <c r="C77" t="n">
-        <v>-29.87605632577241</v>
+        <v>-36.961004336132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16.00209542373453</v>
+        <v>17.13567842266523</v>
       </c>
       <c r="B78" t="n">
-        <v>-22.49575031763606</v>
+        <v>-22.19956234984056</v>
       </c>
       <c r="C78" t="n">
-        <v>35.92047774399192</v>
+        <v>18.30810977285202</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.34111813471817</v>
+        <v>21.60121419930258</v>
       </c>
       <c r="B79" t="n">
-        <v>42.56659112334018</v>
+        <v>-22.01836979924057</v>
       </c>
       <c r="C79" t="n">
-        <v>23.51192477470224</v>
+        <v>12.78313370127802</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>50.91146949233774</v>
+        <v>-19.63825653391553</v>
       </c>
       <c r="B80" t="n">
-        <v>43.39812581421203</v>
+        <v>34.39293535744041</v>
       </c>
       <c r="C80" t="n">
-        <v>-19.11480018499961</v>
+        <v>25.92787813464722</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-12.31365697760519</v>
+        <v>23.28519674502717</v>
       </c>
       <c r="B81" t="n">
-        <v>-27.67786277429461</v>
+        <v>7.231441338661172</v>
       </c>
       <c r="C81" t="n">
-        <v>9.21824709438571</v>
+        <v>35.12095324345655</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-24.19202070999423</v>
+        <v>18.79885875945542</v>
       </c>
       <c r="B82" t="n">
-        <v>-20.72641768844468</v>
+        <v>18.58828744506186</v>
       </c>
       <c r="C82" t="n">
-        <v>-20.73732080751789</v>
+        <v>10.01761798097134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-24.14346700428717</v>
+        <v>-28.07790308037125</v>
       </c>
       <c r="B83" t="n">
-        <v>1.352855910711245</v>
+        <v>17.44751885562147</v>
       </c>
       <c r="C83" t="n">
-        <v>-27.81098139422348</v>
+        <v>-36.2510944718569</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-38.07426121582334</v>
+        <v>28.45499633051362</v>
       </c>
       <c r="B84" t="n">
-        <v>-22.97081695063678</v>
+        <v>-16.37580332637551</v>
       </c>
       <c r="C84" t="n">
-        <v>9.515770603208999</v>
+        <v>16.47708594865402</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-15.91527315031348</v>
+        <v>29.32868885588983</v>
       </c>
       <c r="B85" t="n">
-        <v>-18.23651611956043</v>
+        <v>24.40551951930743</v>
       </c>
       <c r="C85" t="n">
-        <v>23.67244392768881</v>
+        <v>-9.925898043001112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-26.4347840069167</v>
+        <v>-21.61238009646052</v>
       </c>
       <c r="B86" t="n">
-        <v>21.48556470810738</v>
+        <v>14.89012410381345</v>
       </c>
       <c r="C86" t="n">
-        <v>10.94938470225005</v>
+        <v>-17.65382064369595</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24.14316738297194</v>
+        <v>30.42954719698734</v>
       </c>
       <c r="B87" t="n">
-        <v>-29.0848905559109</v>
+        <v>-18.44352311899776</v>
       </c>
       <c r="C87" t="n">
-        <v>52.0708241391721</v>
+        <v>16.9201195855618</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.424775412600372</v>
+        <v>22.79184771479717</v>
       </c>
       <c r="B88" t="n">
-        <v>-40.88517444955482</v>
+        <v>-21.04981357431632</v>
       </c>
       <c r="C88" t="n">
-        <v>-33.24351365420658</v>
+        <v>-12.19145846401932</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-8.423368126514415</v>
+        <v>11.55216761326263</v>
       </c>
       <c r="B89" t="n">
-        <v>-19.22070487066013</v>
+        <v>-12.69048376090264</v>
       </c>
       <c r="C89" t="n">
-        <v>-29.02900123081197</v>
+        <v>21.47486820725209</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-28.31234483419422</v>
+        <v>-24.8853794087035</v>
       </c>
       <c r="B90" t="n">
-        <v>66.75659777477637</v>
+        <v>20.54831689312584</v>
       </c>
       <c r="C90" t="n">
-        <v>52.53546218100001</v>
+        <v>-24.20761599611491</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>97.58853697086259</v>
+        <v>26.09626448429861</v>
       </c>
       <c r="B91" t="n">
-        <v>10.15018143076391</v>
+        <v>-35.67674538871833</v>
       </c>
       <c r="C91" t="n">
-        <v>-24.7334887832255</v>
+        <v>27.66731674922679</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>38.78168758120139</v>
+        <v>31.6549678795557</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.64003633217134</v>
+        <v>16.77972658997073</v>
       </c>
       <c r="C92" t="n">
-        <v>-28.03174778530445</v>
+        <v>-25.7762262746929</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>47.29667175093277</v>
+        <v>-17.45258881532266</v>
       </c>
       <c r="B93" t="n">
-        <v>-32.06725210177158</v>
+        <v>-8.997360008672302</v>
       </c>
       <c r="C93" t="n">
-        <v>-17.95461316457158</v>
+        <v>31.12420100752646</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-33.06225163278345</v>
+        <v>-32.23527051466608</v>
       </c>
       <c r="B94" t="n">
-        <v>-10.5100091452885</v>
+        <v>17.52129818391972</v>
       </c>
       <c r="C94" t="n">
-        <v>-21.09475570009909</v>
+        <v>29.6989671091182</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-24.03199807586941</v>
+        <v>36.10617599283435</v>
       </c>
       <c r="B95" t="n">
-        <v>14.11670905210015</v>
+        <v>39.06693038020054</v>
       </c>
       <c r="C95" t="n">
-        <v>-19.10974812963128</v>
+        <v>16.77935578268287</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12.35915729442731</v>
+        <v>23.83813262304256</v>
       </c>
       <c r="B96" t="n">
-        <v>-16.03081978246995</v>
+        <v>28.48446022112209</v>
       </c>
       <c r="C96" t="n">
-        <v>-18.29843362170665</v>
+        <v>-9.397050410288552</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>34.03245114668198</v>
+        <v>-31.40213126353822</v>
       </c>
       <c r="B97" t="n">
-        <v>-27.53552522492185</v>
+        <v>25.05153161676466</v>
       </c>
       <c r="C97" t="n">
-        <v>-21.34086019990568</v>
+        <v>-39.73331226368216</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-24.85507872949573</v>
+        <v>16.51764345406011</v>
       </c>
       <c r="B98" t="n">
-        <v>-21.55355112153515</v>
+        <v>-25.32741425767459</v>
       </c>
       <c r="C98" t="n">
-        <v>-22.71262865528866</v>
+        <v>-20.77488352804117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.722870589400612</v>
+        <v>17.32263825080475</v>
       </c>
       <c r="B99" t="n">
-        <v>12.60719839812476</v>
+        <v>-34.75281867599391</v>
       </c>
       <c r="C99" t="n">
-        <v>-20.87729340366207</v>
+        <v>39.73221333171153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>22.20279250892132</v>
+        <v>-12.63570284564755</v>
       </c>
       <c r="B100" t="n">
-        <v>-36.26295762649082</v>
+        <v>-13.60564668446185</v>
       </c>
       <c r="C100" t="n">
-        <v>-32.57739957009956</v>
+        <v>-16.68219451155965</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.1299282006647</v>
+        <v>32.6733261836925</v>
       </c>
       <c r="B101" t="n">
-        <v>14.00963298174289</v>
+        <v>18.68345104793627</v>
       </c>
       <c r="C101" t="n">
-        <v>-19.57809449004849</v>
+        <v>-26.2613997132563</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>54.06578442932197</v>
+        <v>-22.50504420435541</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.66733118622253</v>
+        <v>23.65761754453256</v>
       </c>
       <c r="C102" t="n">
-        <v>-8.068624301457129</v>
+        <v>-26.25615434675419</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-29.98324038224695</v>
+        <v>-11.21220564831638</v>
       </c>
       <c r="B103" t="n">
-        <v>20.48014591976465</v>
+        <v>-24.27529922715009</v>
       </c>
       <c r="C103" t="n">
-        <v>-20.3939586516213</v>
+        <v>-22.36336878770246</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>44.51999558809555</v>
+        <v>19.09416162128901</v>
       </c>
       <c r="B104" t="n">
-        <v>-21.62014136522438</v>
+        <v>-31.25392531619235</v>
       </c>
       <c r="C104" t="n">
-        <v>-29.39249293341616</v>
+        <v>21.34509564325125</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-22.58419021905552</v>
+        <v>29.20352890998586</v>
       </c>
       <c r="B105" t="n">
-        <v>-25.31117011516216</v>
+        <v>22.24336164711136</v>
       </c>
       <c r="C105" t="n">
-        <v>31.29822080211646</v>
+        <v>23.69971916608664</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-31.50585221626316</v>
+        <v>-25.44861407617426</v>
       </c>
       <c r="B106" t="n">
-        <v>-29.07411022228166</v>
+        <v>25.42875154057981</v>
       </c>
       <c r="C106" t="n">
-        <v>-35.25610554059524</v>
+        <v>14.45526572299941</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>56.01919334527443</v>
+        <v>16.08224368454128</v>
       </c>
       <c r="B107" t="n">
-        <v>21.74186857725704</v>
+        <v>-35.41968958534251</v>
       </c>
       <c r="C107" t="n">
-        <v>-20.66548013829417</v>
+        <v>30.38393941375884</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5.397717198311117</v>
+        <v>-22.43306138042259</v>
       </c>
       <c r="B108" t="n">
-        <v>-26.13739552764916</v>
+        <v>21.06267462673282</v>
       </c>
       <c r="C108" t="n">
-        <v>-32.25627575518643</v>
+        <v>13.46516627589255</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11.03979280958911</v>
+        <v>18.63501483266608</v>
       </c>
       <c r="B109" t="n">
-        <v>-15.0674112976811</v>
+        <v>-31.65894552611918</v>
       </c>
       <c r="C109" t="n">
-        <v>-31.84264354070856</v>
+        <v>-27.24808678286286</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-24.46139323892506</v>
+        <v>-17.43620354948753</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6587411965066993</v>
+        <v>15.46707165200641</v>
       </c>
       <c r="C110" t="n">
-        <v>6.523669985139451</v>
+        <v>27.84857649761829</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>13.97577803791643</v>
+        <v>-36.51961296097777</v>
       </c>
       <c r="B111" t="n">
-        <v>-24.36268258330591</v>
+        <v>-17.83258125255134</v>
       </c>
       <c r="C111" t="n">
-        <v>-23.11102430361065</v>
+        <v>-31.21056232857486</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-45.66147711989299</v>
+        <v>20.59435229645613</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08523061436764398</v>
+        <v>-14.40828020486413</v>
       </c>
       <c r="C112" t="n">
-        <v>-22.87668881668706</v>
+        <v>-36.8039841813799</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.5552972481834817</v>
+        <v>-31.23746427595773</v>
       </c>
       <c r="B113" t="n">
-        <v>-25.12520924773301</v>
+        <v>-23.96372286766503</v>
       </c>
       <c r="C113" t="n">
-        <v>-18.3502966581847</v>
+        <v>-34.50874868140745</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-17.8922235650028</v>
+        <v>-21.10047103680937</v>
       </c>
       <c r="B114" t="n">
-        <v>-8.765962360685492</v>
+        <v>6.110433682712618</v>
       </c>
       <c r="C114" t="n">
-        <v>-23.37195469234146</v>
+        <v>-11.37099334776677</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-35.36635931599602</v>
+        <v>-14.42941530545848</v>
       </c>
       <c r="B115" t="n">
-        <v>-25.65754424279307</v>
+        <v>20.66018023997069</v>
       </c>
       <c r="C115" t="n">
-        <v>-22.76498392878718</v>
+        <v>-33.51326660147254</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-21.50908014724957</v>
+        <v>2.070271972927717</v>
       </c>
       <c r="B116" t="n">
-        <v>31.50264653365397</v>
+        <v>-32.62561771851274</v>
       </c>
       <c r="C116" t="n">
-        <v>-32.38603688769429</v>
+        <v>-24.16137356808841</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>32.76093431815615</v>
+        <v>-15.1816953196942</v>
       </c>
       <c r="B117" t="n">
-        <v>34.2698655317163</v>
+        <v>32.41547651150771</v>
       </c>
       <c r="C117" t="n">
-        <v>36.93783068511117</v>
+        <v>20.78090353384954</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-20.92470791019151</v>
+        <v>27.93226522222262</v>
       </c>
       <c r="B118" t="n">
-        <v>3.550669540450289</v>
+        <v>14.22245977298937</v>
       </c>
       <c r="C118" t="n">
-        <v>-33.73450570870949</v>
+        <v>25.87958098829169</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-11.90352292836312</v>
+        <v>29.70066725923041</v>
       </c>
       <c r="B119" t="n">
-        <v>-29.01673146477001</v>
+        <v>-25.22552993260868</v>
       </c>
       <c r="C119" t="n">
-        <v>-21.78071041160343</v>
+        <v>30.39870823549725</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>48.54662867734374</v>
+        <v>34.58948742248699</v>
       </c>
       <c r="B120" t="n">
-        <v>18.73196975562632</v>
+        <v>-31.88200161534215</v>
       </c>
       <c r="C120" t="n">
-        <v>25.66685551529934</v>
+        <v>16.07065694474768</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-32.12894746484392</v>
+        <v>20.4613630245074</v>
       </c>
       <c r="B121" t="n">
-        <v>35.53437953826484</v>
+        <v>-20.54539168735718</v>
       </c>
       <c r="C121" t="n">
-        <v>-22.05984016251584</v>
+        <v>20.89832895486628</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-20.79111912458641</v>
+        <v>-18.57110075151195</v>
       </c>
       <c r="B122" t="n">
-        <v>17.63469146997424</v>
+        <v>-39.17319298054748</v>
       </c>
       <c r="C122" t="n">
-        <v>-24.36244790028422</v>
+        <v>17.31513474563432</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15.06014315034452</v>
+        <v>29.01146272808336</v>
       </c>
       <c r="B123" t="n">
-        <v>35.33796529723621</v>
+        <v>-17.74902413942548</v>
       </c>
       <c r="C123" t="n">
-        <v>32.9268598267925</v>
+        <v>23.23096602261958</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-22.67668796569106</v>
+        <v>-34.38143540128846</v>
       </c>
       <c r="B124" t="n">
-        <v>0.07490067229833947</v>
+        <v>-25.77196881456641</v>
       </c>
       <c r="C124" t="n">
-        <v>38.94707726763911</v>
+        <v>15.30948327491611</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>29.23675091101711</v>
+        <v>-46.55129809699601</v>
       </c>
       <c r="B125" t="n">
-        <v>-29.81222647397994</v>
+        <v>22.31854372799697</v>
       </c>
       <c r="C125" t="n">
-        <v>31.19630401998796</v>
+        <v>42.10395792293785</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.025397103121905</v>
+        <v>-16.21380963964875</v>
       </c>
       <c r="B126" t="n">
-        <v>23.05956159304745</v>
+        <v>-31.87407379480851</v>
       </c>
       <c r="C126" t="n">
-        <v>38.8393375470664</v>
+        <v>34.31948192939586</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-35.28275532566445</v>
+        <v>28.59676546884955</v>
       </c>
       <c r="B127" t="n">
-        <v>-21.67436650707203</v>
+        <v>16.55994855546517</v>
       </c>
       <c r="C127" t="n">
-        <v>-10.70222944714829</v>
+        <v>-15.09019395152899</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>19.97411669387336</v>
+        <v>24.97458757079354</v>
       </c>
       <c r="B128" t="n">
-        <v>-20.43290005371538</v>
+        <v>-19.48712570048394</v>
       </c>
       <c r="C128" t="n">
-        <v>-14.12605744826491</v>
+        <v>27.65682916038473</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-18.0154267851936</v>
+        <v>-22.29018099637156</v>
       </c>
       <c r="B129" t="n">
-        <v>36.43215065453815</v>
+        <v>-24.86434024856351</v>
       </c>
       <c r="C129" t="n">
-        <v>-28.29047981517683</v>
+        <v>10.86192010734364</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.58075675801947</v>
+        <v>29.56329134618678</v>
       </c>
       <c r="B130" t="n">
-        <v>21.8464387004478</v>
+        <v>-25.11948886073656</v>
       </c>
       <c r="C130" t="n">
-        <v>-27.17624694759221</v>
+        <v>29.47134987572597</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>48.77003781570155</v>
+        <v>20.80283977772996</v>
       </c>
       <c r="B131" t="n">
-        <v>39.06202944762583</v>
+        <v>-39.88809403983429</v>
       </c>
       <c r="C131" t="n">
-        <v>13.31407569032895</v>
+        <v>23.79997834483129</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-15.87561120621202</v>
+        <v>50.59108970629597</v>
       </c>
       <c r="B132" t="n">
-        <v>30.40277208572363</v>
+        <v>31.52022698715298</v>
       </c>
       <c r="C132" t="n">
-        <v>27.77055182448191</v>
+        <v>-41.86968464859434</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-29.03810751029178</v>
+        <v>22.59155515032803</v>
       </c>
       <c r="B133" t="n">
-        <v>-17.03798692642723</v>
+        <v>-34.19922745697475</v>
       </c>
       <c r="C133" t="n">
-        <v>-14.91738630107242</v>
+        <v>-42.43302279263642</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>26.5247214662082</v>
+        <v>21.35071975954097</v>
       </c>
       <c r="B134" t="n">
-        <v>-6.536510248641116</v>
+        <v>22.75358416299495</v>
       </c>
       <c r="C134" t="n">
-        <v>34.17806884967647</v>
+        <v>-19.94076060752646</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7.531622425564717</v>
+        <v>39.51288974706456</v>
       </c>
       <c r="B135" t="n">
-        <v>-16.34349202409201</v>
+        <v>17.44346199227309</v>
       </c>
       <c r="C135" t="n">
-        <v>63.14678392702</v>
+        <v>28.93650349195402</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>28.948418643318</v>
+        <v>16.15394976208544</v>
       </c>
       <c r="B136" t="n">
-        <v>-25.49749116015924</v>
+        <v>33.2523747954215</v>
       </c>
       <c r="C136" t="n">
-        <v>-23.28396831211086</v>
+        <v>16.57804502412047</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>28.80087508497137</v>
+        <v>34.83702294477564</v>
       </c>
       <c r="B137" t="n">
-        <v>-23.49779575260005</v>
+        <v>28.96246528612189</v>
       </c>
       <c r="C137" t="n">
-        <v>17.09213450593784</v>
+        <v>24.19910892849117</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-28.89046692092752</v>
+        <v>-14.84453557789592</v>
       </c>
       <c r="B138" t="n">
-        <v>-23.51232368124694</v>
+        <v>-8.686999214960409</v>
       </c>
       <c r="C138" t="n">
-        <v>-42.00790435975817</v>
+        <v>27.85420890203897</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-34.40411776256833</v>
+        <v>20.95459081081526</v>
       </c>
       <c r="B139" t="n">
-        <v>23.18994363594865</v>
+        <v>-29.47288711203576</v>
       </c>
       <c r="C139" t="n">
-        <v>30.15807590972731</v>
+        <v>17.15163780575998</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-21.75229473314303</v>
+        <v>28.13789192995378</v>
       </c>
       <c r="B140" t="n">
-        <v>-29.25899215259508</v>
+        <v>38.21783188291055</v>
       </c>
       <c r="C140" t="n">
-        <v>-32.02552997107504</v>
+        <v>19.54995908292584</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>44.33100869539151</v>
+        <v>-23.73101998202061</v>
       </c>
       <c r="B141" t="n">
-        <v>18.48615168729145</v>
+        <v>28.35240747599592</v>
       </c>
       <c r="C141" t="n">
-        <v>46.24020810548809</v>
+        <v>-19.15678909235552</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.1523348612048022</v>
+        <v>-44.13298286173049</v>
       </c>
       <c r="B142" t="n">
-        <v>45.13185545840675</v>
+        <v>25.25091887690776</v>
       </c>
       <c r="C142" t="n">
-        <v>-22.05315038274643</v>
+        <v>-15.5109290160481</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-39.67648395023534</v>
+        <v>35.95021330137546</v>
       </c>
       <c r="B143" t="n">
-        <v>-31.81766392045674</v>
+        <v>-22.87219017410773</v>
       </c>
       <c r="C143" t="n">
-        <v>-31.08912039003859</v>
+        <v>28.37825059295328</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-33.94523953112789</v>
+        <v>25.22488215775078</v>
       </c>
       <c r="B144" t="n">
-        <v>19.0473093801365</v>
+        <v>34.79760828707953</v>
       </c>
       <c r="C144" t="n">
-        <v>-48.54153737880193</v>
+        <v>29.05815199246111</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-31.49868091965316</v>
+        <v>21.49593257524089</v>
       </c>
       <c r="B145" t="n">
-        <v>-17.17293464619684</v>
+        <v>-13.1517020851001</v>
       </c>
       <c r="C145" t="n">
-        <v>-9.166786809781003</v>
+        <v>-12.89797464290967</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>32.74130354737979</v>
+        <v>13.53490708568603</v>
       </c>
       <c r="B146" t="n">
-        <v>-45.36866165818142</v>
+        <v>-31.27105250924477</v>
       </c>
       <c r="C146" t="n">
-        <v>59.19901869204592</v>
+        <v>29.44427433659036</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-19.13255739675418</v>
+        <v>-31.86540118809681</v>
       </c>
       <c r="B147" t="n">
-        <v>-22.2863216384744</v>
+        <v>30.65930009448372</v>
       </c>
       <c r="C147" t="n">
-        <v>-4.743352868631503</v>
+        <v>-38.06335280539363</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-24.864568358079</v>
+        <v>-41.22398207711788</v>
       </c>
       <c r="B148" t="n">
-        <v>29.19882010426882</v>
+        <v>25.83110175002232</v>
       </c>
       <c r="C148" t="n">
-        <v>-29.15540692021534</v>
+        <v>-20.81479020895489</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.816537197974241</v>
+        <v>27.78394100718927</v>
       </c>
       <c r="B149" t="n">
-        <v>-20.77152020110605</v>
+        <v>24.29284490747753</v>
       </c>
       <c r="C149" t="n">
-        <v>36.21788486404171</v>
+        <v>-28.95430350955475</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.22805996478972</v>
+        <v>28.68143323024646</v>
       </c>
       <c r="B150" t="n">
-        <v>-27.89135943131835</v>
+        <v>-31.80638504552895</v>
       </c>
       <c r="C150" t="n">
-        <v>-29.73847998497386</v>
+        <v>-10.68682218803199</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>57.10915660101669</v>
+        <v>-13.03918559060806</v>
       </c>
       <c r="B151" t="n">
-        <v>10.73840725110956</v>
+        <v>-31.40325535832757</v>
       </c>
       <c r="C151" t="n">
-        <v>-18.89657453665126</v>
+        <v>29.92944833629182</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-17.3738691142941</v>
+        <v>24.52193117430075</v>
       </c>
       <c r="B2" t="n">
-        <v>39.2768816130185</v>
+        <v>26.87401730367334</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.48611978567481</v>
+        <v>38.59980724197019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.827984563496302</v>
+        <v>26.67257041003304</v>
       </c>
       <c r="B3" t="n">
-        <v>44.73305267659254</v>
+        <v>-31.46767134015327</v>
       </c>
       <c r="C3" t="n">
-        <v>-25.7512352347375</v>
+        <v>-23.87306984037883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-13.97582149724564</v>
+        <v>20.90450541409014</v>
       </c>
       <c r="B4" t="n">
-        <v>32.08218519411403</v>
+        <v>-13.13524784621371</v>
       </c>
       <c r="C4" t="n">
-        <v>-21.03028444035602</v>
+        <v>-38.11440229175057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58.32823087989519</v>
+        <v>35.09374891057399</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.079764450027159</v>
+        <v>26.56021334257053</v>
       </c>
       <c r="C5" t="n">
-        <v>10.45232092093069</v>
+        <v>-16.02217551754398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.207985898284841</v>
+        <v>-20.53747058589694</v>
       </c>
       <c r="B6" t="n">
-        <v>41.60647444695729</v>
+        <v>-31.47207380541974</v>
       </c>
       <c r="C6" t="n">
-        <v>24.30304140858868</v>
+        <v>-23.76564408995564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-14.76578538800762</v>
+        <v>33.66189356802114</v>
       </c>
       <c r="B7" t="n">
-        <v>-24.97515101819226</v>
+        <v>26.11900837977858</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.907391347886398</v>
+        <v>49.27508176434464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-38.04671597194332</v>
+        <v>12.77957936023347</v>
       </c>
       <c r="B8" t="n">
-        <v>40.13287925244708</v>
+        <v>-21.34832226729769</v>
       </c>
       <c r="C8" t="n">
-        <v>12.34218514335255</v>
+        <v>-33.43641359198104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.64880743767924</v>
+        <v>-21.86818673463213</v>
       </c>
       <c r="B9" t="n">
-        <v>-20.8204963173279</v>
+        <v>21.99951151575767</v>
       </c>
       <c r="C9" t="n">
-        <v>-23.44258255740002</v>
+        <v>22.00309773026498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.27753817324007</v>
+        <v>14.69014006788643</v>
       </c>
       <c r="B10" t="n">
-        <v>26.72473915574134</v>
+        <v>28.29157976627451</v>
       </c>
       <c r="C10" t="n">
-        <v>-18.32873679164523</v>
+        <v>38.53973476336753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.99836541242089</v>
+        <v>-29.76595240053832</v>
       </c>
       <c r="B11" t="n">
-        <v>2.754650270195547</v>
+        <v>28.22806230353655</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.300879731105148</v>
+        <v>-19.69445472047214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67.96828141324644</v>
+        <v>32.53765944113201</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.589045794844154</v>
+        <v>-24.41302090056253</v>
       </c>
       <c r="C12" t="n">
-        <v>-23.77046306478258</v>
+        <v>-29.58161612008045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23.44529228773581</v>
+        <v>15.44106765029044</v>
       </c>
       <c r="B13" t="n">
-        <v>-25.80604489896536</v>
+        <v>23.74873467522037</v>
       </c>
       <c r="C13" t="n">
-        <v>-31.93484243156158</v>
+        <v>-29.80887360206725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.48760661784056</v>
+        <v>15.58162339242222</v>
       </c>
       <c r="B14" t="n">
-        <v>28.4794992148119</v>
+        <v>19.43962063899799</v>
       </c>
       <c r="C14" t="n">
-        <v>91.86784865310236</v>
+        <v>-32.13951583043623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-22.16581499412888</v>
+        <v>24.50166300198372</v>
       </c>
       <c r="B15" t="n">
-        <v>48.98898323438113</v>
+        <v>-30.54070773204577</v>
       </c>
       <c r="C15" t="n">
-        <v>-25.79313667730436</v>
+        <v>14.02706304794146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-29.71130644815392</v>
+        <v>15.02095287795247</v>
       </c>
       <c r="B16" t="n">
-        <v>-20.6825898074431</v>
+        <v>-19.08173905294635</v>
       </c>
       <c r="C16" t="n">
-        <v>48.73317837722706</v>
+        <v>31.55989840177304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-23.9005956053981</v>
+        <v>-20.69516156013939</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.221433089674521</v>
+        <v>-31.61534238200933</v>
       </c>
       <c r="C17" t="n">
-        <v>-32.33549236014414</v>
+        <v>-32.75163688645975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29.67487775221407</v>
+        <v>-34.75089141663748</v>
       </c>
       <c r="B18" t="n">
-        <v>49.7098895434899</v>
+        <v>26.77289756257608</v>
       </c>
       <c r="C18" t="n">
-        <v>34.67970143143582</v>
+        <v>-12.51927293155504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-28.59910498868562</v>
+        <v>28.66228014869212</v>
       </c>
       <c r="B19" t="n">
-        <v>-24.39492704979591</v>
+        <v>3.97359861046791</v>
       </c>
       <c r="C19" t="n">
-        <v>-20.81072102150994</v>
+        <v>22.59563804399646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>48.710388205473</v>
+        <v>26.29162291378361</v>
       </c>
       <c r="B20" t="n">
-        <v>72.29469360884875</v>
+        <v>-22.19128368439362</v>
       </c>
       <c r="C20" t="n">
-        <v>-16.9099395408646</v>
+        <v>32.7934445279533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.584838905475018</v>
+        <v>26.75254196840004</v>
       </c>
       <c r="B21" t="n">
-        <v>34.97653384480407</v>
+        <v>-29.78742307187555</v>
       </c>
       <c r="C21" t="n">
-        <v>27.63219395793206</v>
+        <v>17.53417028228207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.412711077469643</v>
+        <v>44.90946530830475</v>
       </c>
       <c r="B22" t="n">
-        <v>30.55097358543197</v>
+        <v>22.04066996435132</v>
       </c>
       <c r="C22" t="n">
-        <v>30.96522681828928</v>
+        <v>24.48346407819109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-19.72423690539835</v>
+        <v>13.69234274676352</v>
       </c>
       <c r="B23" t="n">
-        <v>-25.88791369627641</v>
+        <v>16.49801904879589</v>
       </c>
       <c r="C23" t="n">
-        <v>69.54544683648086</v>
+        <v>-26.51489733408031</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.294137767580112</v>
+        <v>-13.06002191936937</v>
       </c>
       <c r="B24" t="n">
-        <v>-27.03904943429781</v>
+        <v>-17.19395761336267</v>
       </c>
       <c r="C24" t="n">
-        <v>-25.41086390084525</v>
+        <v>27.3281807764879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>40.67291464087965</v>
+        <v>-22.47586226251971</v>
       </c>
       <c r="B25" t="n">
-        <v>38.71374343641813</v>
+        <v>12.41783632197985</v>
       </c>
       <c r="C25" t="n">
-        <v>-17.84623249097648</v>
+        <v>-38.26778626822852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-27.14970750463272</v>
+        <v>-25.38740386170112</v>
       </c>
       <c r="B26" t="n">
-        <v>-21.97679529567859</v>
+        <v>30.3183751845019</v>
       </c>
       <c r="C26" t="n">
-        <v>27.86111229383994</v>
+        <v>-22.77925673551116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>40.40942382345713</v>
+        <v>-29.59755645978486</v>
       </c>
       <c r="B27" t="n">
-        <v>-22.71707232942047</v>
+        <v>17.30926629131684</v>
       </c>
       <c r="C27" t="n">
-        <v>-28.49660040389288</v>
+        <v>-27.65274165523708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>54.36928293094996</v>
+        <v>-34.67494878648287</v>
       </c>
       <c r="B28" t="n">
-        <v>-34.939832708274</v>
+        <v>-13.78990468573965</v>
       </c>
       <c r="C28" t="n">
-        <v>44.69444989654563</v>
+        <v>25.20297566625756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-19.63100151409451</v>
+        <v>-38.50208203409526</v>
       </c>
       <c r="B29" t="n">
-        <v>-33.08685630730283</v>
+        <v>-29.92456623906608</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.056558259283346</v>
+        <v>-21.37447994125701</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-34.69992945546079</v>
+        <v>19.79644644592802</v>
       </c>
       <c r="B30" t="n">
-        <v>-34.76705351442916</v>
+        <v>16.66869749035038</v>
       </c>
       <c r="C30" t="n">
-        <v>-24.78521298517362</v>
+        <v>-28.78295243680664</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>72.25552351782534</v>
+        <v>-7.297877572438268</v>
       </c>
       <c r="B31" t="n">
-        <v>-21.24114572936044</v>
+        <v>-24.14964285418097</v>
       </c>
       <c r="C31" t="n">
-        <v>27.52217885467609</v>
+        <v>21.22867690220136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-15.90926527679492</v>
+        <v>-16.13284047992227</v>
       </c>
       <c r="B32" t="n">
-        <v>10.36275542887061</v>
+        <v>12.48402475911714</v>
       </c>
       <c r="C32" t="n">
-        <v>-29.4960235776773</v>
+        <v>28.944385714147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.06574735286811</v>
+        <v>29.51368999058783</v>
       </c>
       <c r="B33" t="n">
-        <v>-18.75705723127594</v>
+        <v>-21.75424427417731</v>
       </c>
       <c r="C33" t="n">
-        <v>13.57772861186753</v>
+        <v>-31.5221004359435</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-25.88392365149812</v>
+        <v>12.69762028990927</v>
       </c>
       <c r="B34" t="n">
-        <v>37.38275906432489</v>
+        <v>-22.84786255929604</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.307376294605856</v>
+        <v>-20.23156168408871</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18.41905867865915</v>
+        <v>14.19983316674092</v>
       </c>
       <c r="B35" t="n">
-        <v>-19.55943585428097</v>
+        <v>-23.74520093741549</v>
       </c>
       <c r="C35" t="n">
-        <v>51.55940810508363</v>
+        <v>39.19667067282782</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.09383035555017</v>
+        <v>-33.12338361171854</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.401267613095818</v>
+        <v>16.98160973666543</v>
       </c>
       <c r="C36" t="n">
-        <v>-39.56674420478412</v>
+        <v>-23.60118609011027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-36.14646751181726</v>
+        <v>-29.53286966023861</v>
       </c>
       <c r="B37" t="n">
-        <v>33.66828332629928</v>
+        <v>35.23496359930414</v>
       </c>
       <c r="C37" t="n">
-        <v>-32.64732759342164</v>
+        <v>-25.43026558725734</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-17.49578746153191</v>
+        <v>-19.32293316502544</v>
       </c>
       <c r="B38" t="n">
-        <v>-16.32783858338513</v>
+        <v>-18.79748463198894</v>
       </c>
       <c r="C38" t="n">
-        <v>40.52203801928567</v>
+        <v>13.38146470938664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-28.69907373817977</v>
+        <v>-35.44720195198524</v>
       </c>
       <c r="B39" t="n">
-        <v>-27.96615030054587</v>
+        <v>45.49763614591126</v>
       </c>
       <c r="C39" t="n">
-        <v>6.700109558230362</v>
+        <v>32.70316782081608</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-23.60956418653367</v>
+        <v>29.08340806243682</v>
       </c>
       <c r="B40" t="n">
-        <v>-28.18755832680104</v>
+        <v>-11.95523053514967</v>
       </c>
       <c r="C40" t="n">
-        <v>-15.11335746832756</v>
+        <v>22.46904802632796</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63.86135871947887</v>
+        <v>-23.33320342701018</v>
       </c>
       <c r="B41" t="n">
-        <v>-17.78219131231027</v>
+        <v>24.87089172130166</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7584216913307498</v>
+        <v>-20.05835978541815</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-24.15521986324952</v>
+        <v>-33.095866111521</v>
       </c>
       <c r="B42" t="n">
-        <v>41.06407299355612</v>
+        <v>25.31034595710764</v>
       </c>
       <c r="C42" t="n">
-        <v>13.95666720156521</v>
+        <v>-38.71046497175677</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.129032767425953</v>
+        <v>21.62989189030028</v>
       </c>
       <c r="B43" t="n">
-        <v>-24.04177718885197</v>
+        <v>26.42412341996118</v>
       </c>
       <c r="C43" t="n">
-        <v>-38.9907921360621</v>
+        <v>-23.5270561416502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-27.82891875320051</v>
+        <v>32.58133286922746</v>
       </c>
       <c r="B44" t="n">
-        <v>21.06315870679873</v>
+        <v>-14.34929107106678</v>
       </c>
       <c r="C44" t="n">
-        <v>36.38345456243848</v>
+        <v>-25.60772002780232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>32.12076484171009</v>
+        <v>-17.66298824439533</v>
       </c>
       <c r="B45" t="n">
-        <v>-18.39458084488828</v>
+        <v>-31.12630675265603</v>
       </c>
       <c r="C45" t="n">
-        <v>-26.0498699428712</v>
+        <v>-15.33460892521932</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>30.76027935485862</v>
+        <v>12.83392854211804</v>
       </c>
       <c r="B46" t="n">
-        <v>-31.38122579867954</v>
+        <v>-26.69402388003591</v>
       </c>
       <c r="C46" t="n">
-        <v>-36.05544007071942</v>
+        <v>12.51180285897351</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.629461035046702</v>
+        <v>14.84161190199716</v>
       </c>
       <c r="B47" t="n">
-        <v>13.75814696267371</v>
+        <v>-18.75648858474178</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.55668990633976</v>
+        <v>-31.24849244051564</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-4.136025617314995</v>
+        <v>-29.14025043954319</v>
       </c>
       <c r="B48" t="n">
-        <v>58.90935329623471</v>
+        <v>24.0155818935854</v>
       </c>
       <c r="C48" t="n">
-        <v>25.04596709065583</v>
+        <v>-27.36954057394308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.37522313919051</v>
+        <v>-25.86401760386768</v>
       </c>
       <c r="B49" t="n">
-        <v>24.14420652758245</v>
+        <v>24.14831530664499</v>
       </c>
       <c r="C49" t="n">
-        <v>-30.55590585402608</v>
+        <v>-30.46240583930081</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-19.02933042250057</v>
+        <v>30.63812779925255</v>
       </c>
       <c r="B50" t="n">
-        <v>10.40813846381088</v>
+        <v>30.07451884784494</v>
       </c>
       <c r="C50" t="n">
-        <v>9.085888145190495</v>
+        <v>-27.96284330652047</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>19.58611150949619</v>
+        <v>-22.14391415505534</v>
       </c>
       <c r="B51" t="n">
-        <v>32.06495530451374</v>
+        <v>23.89958222086179</v>
       </c>
       <c r="C51" t="n">
-        <v>53.48186895759407</v>
+        <v>-16.21267706733153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>62.44805755108585</v>
+        <v>20.00635825430489</v>
       </c>
       <c r="B52" t="n">
-        <v>-28.88358318038388</v>
+        <v>-36.79165813939461</v>
       </c>
       <c r="C52" t="n">
-        <v>46.02053069628356</v>
+        <v>-17.56515894531208</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-28.60335001248837</v>
+        <v>14.64981869203321</v>
       </c>
       <c r="B53" t="n">
-        <v>-37.00768597200842</v>
+        <v>28.97833507862208</v>
       </c>
       <c r="C53" t="n">
-        <v>-24.7237203442737</v>
+        <v>-3.084588838048461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-27.73097355776713</v>
+        <v>-19.62367931779598</v>
       </c>
       <c r="B54" t="n">
-        <v>39.85368283559491</v>
+        <v>-24.63162749141494</v>
       </c>
       <c r="C54" t="n">
-        <v>18.31836771862715</v>
+        <v>35.25125151582686</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-18.72412006547263</v>
+        <v>21.15379950698907</v>
       </c>
       <c r="B55" t="n">
-        <v>60.69494034816247</v>
+        <v>-24.40007862212595</v>
       </c>
       <c r="C55" t="n">
-        <v>-22.23839185799328</v>
+        <v>-21.77516314552508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-33.52672378024528</v>
+        <v>-22.1939885225894</v>
       </c>
       <c r="B56" t="n">
-        <v>-37.30403292064128</v>
+        <v>-27.94325350181496</v>
       </c>
       <c r="C56" t="n">
-        <v>19.61262791161734</v>
+        <v>-26.72203315455429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.01512307202038</v>
+        <v>26.9602743476527</v>
       </c>
       <c r="B57" t="n">
-        <v>-20.82486536900206</v>
+        <v>-17.13354506600084</v>
       </c>
       <c r="C57" t="n">
-        <v>8.086476895863195</v>
+        <v>-18.19898877154543</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-18.41774505644322</v>
+        <v>-18.46625545605074</v>
       </c>
       <c r="B58" t="n">
-        <v>-23.88341417983035</v>
+        <v>-24.95485217006799</v>
       </c>
       <c r="C58" t="n">
-        <v>-30.96620242003431</v>
+        <v>-28.51984332880055</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-4.027274551087756</v>
+        <v>-23.20742693188456</v>
       </c>
       <c r="B59" t="n">
-        <v>-27.0080103092786</v>
+        <v>-50.01908363436698</v>
       </c>
       <c r="C59" t="n">
-        <v>-24.17656856477997</v>
+        <v>26.6596207571477</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>23.97507018686754</v>
+        <v>22.23114440905578</v>
       </c>
       <c r="B60" t="n">
-        <v>-27.67621147440373</v>
+        <v>-22.08718721929808</v>
       </c>
       <c r="C60" t="n">
-        <v>-21.61330869606467</v>
+        <v>-19.87612558632286</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>38.56561522527962</v>
+        <v>24.95821702240833</v>
       </c>
       <c r="B61" t="n">
-        <v>-21.31699480479499</v>
+        <v>29.95924034033633</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.857312283987119</v>
+        <v>7.602279299606799</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-30.09006039067157</v>
+        <v>-27.76355396963773</v>
       </c>
       <c r="B62" t="n">
-        <v>-35.01882088713672</v>
+        <v>-25.69889141133764</v>
       </c>
       <c r="C62" t="n">
-        <v>-24.69843042184001</v>
+        <v>-23.44002430185364</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-27.75849749699975</v>
+        <v>-31.55119793279259</v>
       </c>
       <c r="B63" t="n">
-        <v>62.23028293473917</v>
+        <v>32.93944972488962</v>
       </c>
       <c r="C63" t="n">
-        <v>26.25602930969747</v>
+        <v>25.34350791519825</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31.38011064352653</v>
+        <v>27.99722273487475</v>
       </c>
       <c r="B64" t="n">
-        <v>-35.86145754531591</v>
+        <v>17.77498508706551</v>
       </c>
       <c r="C64" t="n">
-        <v>-22.41157592688444</v>
+        <v>24.36540153284292</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.14024914477957</v>
+        <v>16.66818428311909</v>
       </c>
       <c r="B65" t="n">
-        <v>-25.01859910715366</v>
+        <v>-23.63698237698109</v>
       </c>
       <c r="C65" t="n">
-        <v>-47.16447032005204</v>
+        <v>21.96859253170632</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-20.1404150873217</v>
+        <v>16.57661538297322</v>
       </c>
       <c r="B66" t="n">
-        <v>-25.94956353901492</v>
+        <v>-16.35637889242105</v>
       </c>
       <c r="C66" t="n">
-        <v>13.49988160948119</v>
+        <v>-16.33490892397418</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>32.52857385538241</v>
+        <v>34.09225908360557</v>
       </c>
       <c r="B67" t="n">
-        <v>-26.03464485230853</v>
+        <v>-23.6037065682983</v>
       </c>
       <c r="C67" t="n">
-        <v>-28.11700120937979</v>
+        <v>-18.95459278604681</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-24.98457060879385</v>
+        <v>19.5427726998621</v>
       </c>
       <c r="B68" t="n">
-        <v>26.60922692053063</v>
+        <v>-25.0226354885847</v>
       </c>
       <c r="C68" t="n">
-        <v>-31.0318435723073</v>
+        <v>18.32925285095072</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-28.92780135907206</v>
+        <v>-18.35613420000404</v>
       </c>
       <c r="B69" t="n">
-        <v>-38.65742203691454</v>
+        <v>-31.74985032051727</v>
       </c>
       <c r="C69" t="n">
-        <v>-22.94465935389631</v>
+        <v>35.84170503653195</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-20.73335554526069</v>
+        <v>40.72726503350484</v>
       </c>
       <c r="B70" t="n">
-        <v>-38.34376029315256</v>
+        <v>-37.55731814556292</v>
       </c>
       <c r="C70" t="n">
-        <v>-30.38777357250972</v>
+        <v>-35.59867892551805</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-25.67695148466967</v>
+        <v>36.00138472360222</v>
       </c>
       <c r="B71" t="n">
-        <v>83.07535937699423</v>
+        <v>-20.41389449693975</v>
       </c>
       <c r="C71" t="n">
-        <v>43.36838441205036</v>
+        <v>23.85828522926687</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-17.86478614790628</v>
+        <v>-19.55987038982707</v>
       </c>
       <c r="B72" t="n">
-        <v>49.45714211180968</v>
+        <v>26.06692939762194</v>
       </c>
       <c r="C72" t="n">
-        <v>-28.50413951196737</v>
+        <v>-32.96714530830278</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>50.87821551276359</v>
+        <v>-31.36050528003511</v>
       </c>
       <c r="B73" t="n">
-        <v>54.50716847914772</v>
+        <v>15.42607420735462</v>
       </c>
       <c r="C73" t="n">
-        <v>38.52474814364786</v>
+        <v>22.68913705938022</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-26.47557003573963</v>
+        <v>-21.20186201782657</v>
       </c>
       <c r="B74" t="n">
-        <v>-30.05971082280418</v>
+        <v>-21.38447799439447</v>
       </c>
       <c r="C74" t="n">
-        <v>-21.86618293567316</v>
+        <v>-25.62099844317301</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-34.72928479622465</v>
+        <v>-26.43495925351123</v>
       </c>
       <c r="B75" t="n">
-        <v>9.80971596155063</v>
+        <v>-19.96087210881922</v>
       </c>
       <c r="C75" t="n">
-        <v>-19.00759594663734</v>
+        <v>16.33149625239442</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-17.15674067333086</v>
+        <v>25.49692727724069</v>
       </c>
       <c r="B76" t="n">
-        <v>-27.60057757387488</v>
+        <v>-14.19301920912834</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.584612658413386</v>
+        <v>-21.18387912184834</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-23.53448159844422</v>
+        <v>16.97049921762986</v>
       </c>
       <c r="B77" t="n">
-        <v>40.09431420381792</v>
+        <v>-12.13305978982692</v>
       </c>
       <c r="C77" t="n">
-        <v>61.63473837468211</v>
+        <v>14.85800691812961</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51.44767539560279</v>
+        <v>33.18475337716095</v>
       </c>
       <c r="B78" t="n">
-        <v>-19.14504649085101</v>
+        <v>-18.93386930474773</v>
       </c>
       <c r="C78" t="n">
-        <v>55.6148981242133</v>
+        <v>-26.75509910795591</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.23989410242871</v>
+        <v>24.09403092545566</v>
       </c>
       <c r="B79" t="n">
-        <v>-28.40181118300254</v>
+        <v>-20.92658811285347</v>
       </c>
       <c r="C79" t="n">
-        <v>34.85053283826453</v>
+        <v>24.93329833977684</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>55.64459617134847</v>
+        <v>13.64982154094488</v>
       </c>
       <c r="B80" t="n">
-        <v>47.44596217775661</v>
+        <v>24.22769000622219</v>
       </c>
       <c r="C80" t="n">
-        <v>-18.87386792618129</v>
+        <v>-33.77883859350719</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-30.23949507053023</v>
+        <v>18.38619020223336</v>
       </c>
       <c r="B81" t="n">
-        <v>-18.4106526200721</v>
+        <v>17.14840926060473</v>
       </c>
       <c r="C81" t="n">
-        <v>-11.53062142565749</v>
+        <v>21.68797515352541</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>42.08631195933103</v>
+        <v>35.79282979589281</v>
       </c>
       <c r="B82" t="n">
-        <v>-32.1771557394235</v>
+        <v>21.79081275947459</v>
       </c>
       <c r="C82" t="n">
-        <v>-19.30173196194478</v>
+        <v>9.319910593083076</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-28.94704527305857</v>
+        <v>-19.34364527312739</v>
       </c>
       <c r="B83" t="n">
-        <v>-34.26714877319905</v>
+        <v>28.22098724672793</v>
       </c>
       <c r="C83" t="n">
-        <v>-28.59642233306882</v>
+        <v>14.91103317347609</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-29.35136328345899</v>
+        <v>21.37236179460649</v>
       </c>
       <c r="B84" t="n">
-        <v>-22.48587313908855</v>
+        <v>-30.31379183455518</v>
       </c>
       <c r="C84" t="n">
-        <v>45.24713158017786</v>
+        <v>23.8835605944593</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.276207587360767</v>
+        <v>-19.13173300664669</v>
       </c>
       <c r="B85" t="n">
-        <v>-11.07898417966138</v>
+        <v>-18.05492297081188</v>
       </c>
       <c r="C85" t="n">
-        <v>-24.95517658388206</v>
+        <v>-29.83548921436273</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-23.06663466386491</v>
+        <v>-20.27068947825109</v>
       </c>
       <c r="B86" t="n">
-        <v>-30.41350059577058</v>
+        <v>-41.53878638161991</v>
       </c>
       <c r="C86" t="n">
-        <v>-29.12371871087043</v>
+        <v>-27.52506487375853</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-24.50385558809722</v>
+        <v>29.97865904730982</v>
       </c>
       <c r="B87" t="n">
-        <v>34.0599221033679</v>
+        <v>-29.1698615259054</v>
       </c>
       <c r="C87" t="n">
-        <v>-24.4445265642148</v>
+        <v>32.63729099503382</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-18.39153230659965</v>
+        <v>-28.82472651133533</v>
       </c>
       <c r="B88" t="n">
-        <v>-19.39024651257592</v>
+        <v>-18.26137656357277</v>
       </c>
       <c r="C88" t="n">
-        <v>-22.12367304592984</v>
+        <v>-21.59641592529329</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>36.92314302064635</v>
+        <v>-27.24771899804197</v>
       </c>
       <c r="B89" t="n">
-        <v>35.39117377055956</v>
+        <v>-29.89501708882685</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.731170767500212</v>
+        <v>21.70390833661464</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-28.98296000021147</v>
+        <v>29.30852585863276</v>
       </c>
       <c r="B90" t="n">
-        <v>-21.57826191672926</v>
+        <v>-20.48092710460397</v>
       </c>
       <c r="C90" t="n">
-        <v>36.32256691135736</v>
+        <v>-25.41106615127006</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>55.59102167149359</v>
+        <v>-41.93527913136499</v>
       </c>
       <c r="B91" t="n">
-        <v>-33.46496825245207</v>
+        <v>19.90020702047251</v>
       </c>
       <c r="C91" t="n">
-        <v>-26.39158887141983</v>
+        <v>-14.69977289078039</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>29.15467520032422</v>
+        <v>24.16024803695494</v>
       </c>
       <c r="B92" t="n">
-        <v>-22.85931278035392</v>
+        <v>-39.4612102287841</v>
       </c>
       <c r="C92" t="n">
-        <v>4.582686275722168</v>
+        <v>27.84208163295634</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-25.57671000855894</v>
+        <v>-18.31700335746098</v>
       </c>
       <c r="B93" t="n">
-        <v>13.69490169236546</v>
+        <v>-24.10911683303134</v>
       </c>
       <c r="C93" t="n">
-        <v>-45.35365300501221</v>
+        <v>-30.46738838268573</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-34.76585303134596</v>
+        <v>27.1631756273988</v>
       </c>
       <c r="B94" t="n">
-        <v>-18.43133731236111</v>
+        <v>-21.2007239599547</v>
       </c>
       <c r="C94" t="n">
-        <v>-21.00013946414428</v>
+        <v>20.87303836552125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>26.83116650096178</v>
+        <v>-27.54622096730822</v>
       </c>
       <c r="B95" t="n">
-        <v>77.2125249018746</v>
+        <v>-20.92785817474044</v>
       </c>
       <c r="C95" t="n">
-        <v>36.22287636977614</v>
+        <v>18.2650427991626</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-36.20824883589214</v>
+        <v>-23.49431836574604</v>
       </c>
       <c r="B96" t="n">
-        <v>-23.75775762423721</v>
+        <v>-18.74711550202547</v>
       </c>
       <c r="C96" t="n">
-        <v>-26.0184783548243</v>
+        <v>-27.66697664258195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-26.53047696908936</v>
+        <v>-28.86695438073762</v>
       </c>
       <c r="B97" t="n">
-        <v>18.1793156044042</v>
+        <v>23.37604901990895</v>
       </c>
       <c r="C97" t="n">
-        <v>51.00452120433033</v>
+        <v>40.2917405702209</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-13.01532714932977</v>
+        <v>-21.62761753068283</v>
       </c>
       <c r="B98" t="n">
-        <v>-29.37039125308716</v>
+        <v>-33.37512688791342</v>
       </c>
       <c r="C98" t="n">
-        <v>-3.264732276021739</v>
+        <v>-8.450680451544873</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-28.10461382510388</v>
+        <v>-26.38467763494868</v>
       </c>
       <c r="B99" t="n">
-        <v>-22.19057317835088</v>
+        <v>-12.85519592558426</v>
       </c>
       <c r="C99" t="n">
-        <v>16.91004671602747</v>
+        <v>18.30438208422063</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-39.29990113869195</v>
+        <v>-20.28871186886593</v>
       </c>
       <c r="B100" t="n">
-        <v>-30.16284683297802</v>
+        <v>20.47024502775717</v>
       </c>
       <c r="C100" t="n">
-        <v>31.40036409690021</v>
+        <v>21.81277453120306</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-25.25373530577202</v>
+        <v>23.99828225924493</v>
       </c>
       <c r="B101" t="n">
-        <v>-35.22655525139579</v>
+        <v>-29.52833900490283</v>
       </c>
       <c r="C101" t="n">
-        <v>-23.50943611255988</v>
+        <v>-33.73839003259212</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.79089543194916</v>
+        <v>25.65537054763027</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-11.35984840803904</v>
+        <v>24.80364256630895</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>54.08806493686194</v>
+        <v>30.46944453615391</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-27.91334146167353</v>
+        <v>34.25264021464471</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>51.20040924882655</v>
+        <v>24.73926036209158</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-12.31326067311453</v>
+        <v>-18.63432974871069</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>13.84397404878314</v>
+        <v>-23.78476168341835</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-37.61135077647614</v>
+        <v>19.55178447608681</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-8.844901586788948</v>
+        <v>28.04321919174775</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>22.01181650440375</v>
+        <v>-19.94269100265708</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>20.66858130165139</v>
+        <v>45.99098190782311</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>20.69411215379675</v>
+        <v>-14.87703670008524</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-27.46069920829941</v>
+        <v>22.20220648723355</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-28.81870355886515</v>
+        <v>22.4476386262753</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-35.09016047008686</v>
+        <v>-33.21870566977793</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-25.06847809542008</v>
+        <v>-23.45750830576416</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-36.47607101123742</v>
+        <v>-33.58284336921854</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-27.34888491821218</v>
+        <v>-28.94407430654463</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-15.92118215938877</v>
+        <v>19.93563953996358</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14.29532158672368</v>
+        <v>-23.49699772061865</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-37.9659690418243</v>
+        <v>14.23505142975159</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>27.50804771179776</v>
+        <v>28.15096001994567</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-13.24266975044441</v>
+        <v>-29.62013381317828</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>29.88611623679025</v>
+        <v>-19.83686963941349</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.9078540815058638</v>
+        <v>-23.21700572257105</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-25.6702656278166</v>
+        <v>20.28020772000813</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-25.51892711002225</v>
+        <v>5.420051172832977</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-3.346001551087093</v>
+        <v>-16.67284397928963</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-43.22359174529234</v>
+        <v>-17.51942972858906</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>48.21009056873552</v>
+        <v>35.96996867912676</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6.108675152954024</v>
+        <v>33.41282659080301</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>15.07234154330767</v>
+        <v>35.31024004770715</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.404245136029981</v>
+        <v>26.30969407737295</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>39.14281915629197</v>
+        <v>-22.53181112292894</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-37.04294029270189</v>
+        <v>-18.44207158392513</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-27.02004261086273</v>
+        <v>-36.35285784464227</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>41.26744967683787</v>
+        <v>-35.31018678350267</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>21.27365386356009</v>
+        <v>26.93789963809018</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-3.697443993884474</v>
+        <v>-30.87856086321074</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-2.25698187035766</v>
+        <v>-21.78003216966816</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-13.6768455038404</v>
+        <v>30.68488408602444</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-25.17798301407199</v>
+        <v>-33.94284796387756</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-36.04608773363088</v>
+        <v>17.64685045246945</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>12.00841200191223</v>
+        <v>-23.24496359946108</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-16.18913499655948</v>
+        <v>-18.59379737808446</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-11.6152910218495</v>
+        <v>-32.75636333717067</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>25.11081141373201</v>
+        <v>24.43624576039813</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-33.53875114034479</v>
+        <v>25.35752403347838</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>32.54496074519315</v>
+        <v>-25.00469414024239</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-32.1635176943187</v>
+        <v>28.87989795345603</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
